--- a/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
+++ b/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
@@ -451,631 +451,851 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5347</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>000849</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>汇丰晋信双核策略混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>84.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>7.22</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>000850</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>84.52</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>7.22</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>540009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信消费红利股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>85.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002330</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴业聚宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>86.92</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>93.51</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>8.23</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1085,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1326,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003586</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>46.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003587</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合C</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004726</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004727</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合C</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004729</t>
+          <t>000849</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧瑾泰灵活配置混合C</t>
+          <t>汇丰晋信双核策略混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>53.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>002330</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>兴业聚宝灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000849</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>53.66</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000850</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合C</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>53.66</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>93.01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4.56</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>53.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002330</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>兴业聚宝灵活配置混合</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>003586</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>先锋精一灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>42.62</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>003587</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>先锋精一灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>004726</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>先锋聚优灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>004727</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>先锋聚优灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>004729</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧瑾泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
+++ b/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
+++ b/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2474,4 +2475,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8896</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
+++ b/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2873,4 +2874,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
+++ b/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,17 +2894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2913,14 +2934,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.58</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2929,14 +2972,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.81</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2945,14 +3010,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.73</v>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2961,13 +3048,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
+++ b/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3281,7 +3282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3292,17 +3293,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3312,14 +3333,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.41</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3328,14 +3371,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.58</v>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3344,14 +3409,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.81</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3360,14 +3447,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.73</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3376,13 +3485,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
+++ b/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3680,7 +3681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3691,17 +3692,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3711,14 +3732,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.94</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3727,14 +3770,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.41</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3743,14 +3808,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.58</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4891</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3759,14 +3846,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.81</v>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3775,14 +3884,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.73</v>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3791,13 +3922,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
+++ b/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>4.12</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>5.94</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3.41</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2.81</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>4.73</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.79</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>562530</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -952,404 +1367,6 @@
       </c>
       <c r="H9" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8017</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>43.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8017</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2385</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4546</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2141</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1482</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1034</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1034</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>75.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1424,26 +1441,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.87</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1106</t>
+          <t>1.8017</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1452,36 +1469,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5359</t>
+          <t>1.8017</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1490,36 +1507,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>28.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2801</t>
+          <t>1.2385</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1528,36 +1545,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1410</t>
+          <t>0.4546</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1566,36 +1583,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>98.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1063</t>
+          <t>0.2141</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1604,36 +1621,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1021</t>
+          <t>0.1482</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1642,36 +1659,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0897</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1680,36 +1697,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1718,36 +1735,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>75.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0789</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1799,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1822,26 +1839,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>38.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8253</t>
+          <t>2.1106</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1850,36 +1867,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8896</t>
+          <t>0.5359</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1888,36 +1905,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3258</t>
+          <t>0.2801</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1926,32 +1943,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2476</t>
+          <t>0.1410</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1964,36 +1981,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1102</t>
+          <t>0.1063</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2002,36 +2019,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0795</t>
+          <t>0.1021</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2040,36 +2057,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0696</t>
+          <t>0.0897</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2088,22 +2105,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2126,26 +2143,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2154,6 +2171,404 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8896</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2513,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3329,7 +3744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
+++ b/数据整理/stocks/A股/深证主板/000910-大亚圣象.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.12</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.94</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>3.41</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>2.81</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>4.73</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,884 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5347</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1488,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>562530</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +2207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1367,404 +2560,6 @@
       </c>
       <c r="H9" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8017</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>43.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8017</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2385</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4546</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2141</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1482</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1034</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1034</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>75.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1839,26 +2634,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.87</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1106</t>
+          <t>1.8017</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1867,36 +2662,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5359</t>
+          <t>1.8017</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1905,36 +2700,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>28.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2801</t>
+          <t>1.2385</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1943,36 +2738,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1410</t>
+          <t>0.4546</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1981,36 +2776,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>98.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1063</t>
+          <t>0.2141</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2019,36 +2814,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1021</t>
+          <t>0.1482</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2057,36 +2852,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0897</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2095,36 +2890,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2133,36 +2928,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>75.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0789</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2992,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2237,26 +3032,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>38.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8253</t>
+          <t>2.1106</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2265,36 +3060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8896</t>
+          <t>0.5359</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2303,36 +3098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3258</t>
+          <t>0.2801</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2341,32 +3136,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2476</t>
+          <t>0.1410</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2379,36 +3174,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1102</t>
+          <t>0.1063</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2417,36 +3212,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0795</t>
+          <t>0.1021</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2455,36 +3250,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0696</t>
+          <t>0.0897</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2503,22 +3298,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2541,26 +3336,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2569,6 +3364,404 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8896</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2928,7 +4121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3742,858 +4935,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5347</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5347</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8651</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5556</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000849</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5083</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3259</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3211</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2215</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>540009</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇丰晋信消费红利股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.96</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2201</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002330</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴业聚宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.92</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1743</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1551</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0934</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0923</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0707</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000850</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>